--- a/IonExchangeModel/test/data/test_input_multi_mass_transfer.xlsx
+++ b/IonExchangeModel/test/data/test_input_multi_mass_transfer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/burkhardt_jonathan_epa_gov/Documents/Profile/Documents/MMT/IonExchangeModel/test/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/burkhardt_jonathan_epa_gov/Documents/Profile/Desktop/Git/Water_Treatment_Models/IonExchangeModel/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9915A959-99D1-450C-9E07-AAEE375AB7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{9915A959-99D1-450C-9E07-AAEE375AB7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E7A4DF0-E29B-40F7-B013-E6CD575BD2CD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2205" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="2" r:id="rId1"/>
@@ -1018,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,7 +1092,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>7.4999999999999997E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -1170,7 +1170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
